--- a/frontend/outputs/LP6142814_invoice.xlsx
+++ b/frontend/outputs/LP6142814_invoice.xlsx
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C12" s="23" t="n"/>
       <c r="D12" s="23" t="n">
-        <v>80.0044358505949</v>
+        <v>79.92141467061423</v>
       </c>
       <c r="E12" s="23" t="n"/>
       <c r="F12" s="23" t="n"/>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="C13" s="23" t="n"/>
       <c r="D13" s="23" t="n">
-        <v>180.0896547307399</v>
+        <v>180.0589911994641</v>
       </c>
       <c r="E13" s="23" t="n"/>
       <c r="F13" s="23" t="n"/>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="C14" s="23" t="n"/>
       <c r="D14" s="23" t="n">
-        <v>250.0848166582048</v>
+        <v>250.0644709942842</v>
       </c>
       <c r="E14" s="23" t="n"/>
       <c r="F14" s="23" t="n"/>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="C15" s="23" t="n"/>
       <c r="D15" s="23" t="n">
-        <v>1439.927086698275</v>
+        <v>1440.017582468089</v>
       </c>
       <c r="E15" s="23" t="n"/>
       <c r="F15" s="23" t="n"/>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="C16" s="23" t="n"/>
       <c r="D16" s="23" t="n">
-        <v>2630.027323273921</v>
+        <v>2630.051965646463</v>
       </c>
       <c r="E16" s="23" t="n"/>
       <c r="F16" s="23" t="n"/>

--- a/frontend/outputs/LP6142814_invoice.xlsx
+++ b/frontend/outputs/LP6142814_invoice.xlsx
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C12" s="23" t="n"/>
       <c r="D12" s="23" t="n">
-        <v>79.92141467061423</v>
+        <v>79.99846517660716</v>
       </c>
       <c r="E12" s="23" t="n"/>
       <c r="F12" s="23" t="n"/>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="C13" s="23" t="n"/>
       <c r="D13" s="23" t="n">
-        <v>180.0589911994641</v>
+        <v>180.0870466748</v>
       </c>
       <c r="E13" s="23" t="n"/>
       <c r="F13" s="23" t="n"/>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="C14" s="23" t="n"/>
       <c r="D14" s="23" t="n">
-        <v>250.0644709942842</v>
+        <v>249.9062623048366</v>
       </c>
       <c r="E14" s="23" t="n"/>
       <c r="F14" s="23" t="n"/>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="C15" s="23" t="n"/>
       <c r="D15" s="23" t="n">
-        <v>1440.017582468089</v>
+        <v>1440.085078925638</v>
       </c>
       <c r="E15" s="23" t="n"/>
       <c r="F15" s="23" t="n"/>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="C16" s="23" t="n"/>
       <c r="D16" s="23" t="n">
-        <v>2630.051965646463</v>
+        <v>2630.007051253991</v>
       </c>
       <c r="E16" s="23" t="n"/>
       <c r="F16" s="23" t="n"/>

--- a/frontend/outputs/LP6142814_invoice.xlsx
+++ b/frontend/outputs/LP6142814_invoice.xlsx
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C12" s="23" t="n"/>
       <c r="D12" s="23" t="n">
-        <v>79.99846517660716</v>
+        <v>80.0347054496779</v>
       </c>
       <c r="E12" s="23" t="n"/>
       <c r="F12" s="23" t="n"/>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="C13" s="23" t="n"/>
       <c r="D13" s="23" t="n">
-        <v>180.0870466748</v>
+        <v>180.0313302171973</v>
       </c>
       <c r="E13" s="23" t="n"/>
       <c r="F13" s="23" t="n"/>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="C14" s="23" t="n"/>
       <c r="D14" s="23" t="n">
-        <v>249.9062623048366</v>
+        <v>249.9134209941672</v>
       </c>
       <c r="E14" s="23" t="n"/>
       <c r="F14" s="23" t="n"/>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="C15" s="23" t="n"/>
       <c r="D15" s="23" t="n">
-        <v>1440.085078925638</v>
+        <v>1439.974351493903</v>
       </c>
       <c r="E15" s="23" t="n"/>
       <c r="F15" s="23" t="n"/>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="C16" s="23" t="n"/>
       <c r="D16" s="23" t="n">
-        <v>2630.007051253991</v>
+        <v>2630.086164830997</v>
       </c>
       <c r="E16" s="23" t="n"/>
       <c r="F16" s="23" t="n"/>
